--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C32B0C-6BE2-41D0-97F0-8B352ED09149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFAD95F-4D57-45F4-AD41-A027C46A6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -189,28 +189,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">3STEP TX -&gt; 1 2 3 4    </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>01: 清償
-02: 法拍
-03: 增貸
-04: 展期
-05: 撥款
-06: 查閱
-07: 重估
-08: 其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.重要袋
-2.普通袋
-3.重要袋&amp;普通袋
-4.其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -357,6 +335,28 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>1/2/3/4:3STEP TX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:清償
+02:法拍
+03:增貸
+04:展期
+05:撥款
+06:查閱
+07:重估
+08:其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:重要袋
+2:普通袋
+3:重要袋&amp;普通袋
+4:其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,6 +637,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -648,18 +660,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1021,12 +1021,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1036,8 +1036,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1049,12 +1049,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1064,10 +1064,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1075,12 +1075,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1088,10 +1088,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1099,10 +1099,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1137,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>44</v>
@@ -1155,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>27</v>
@@ -1173,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>28</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>30</v>
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>31</v>
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>32</v>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>33</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1303,13 +1303,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="23">
         <v>8</v>
@@ -1321,13 +1321,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="23">
         <v>8</v>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>37</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1401,7 +1401,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
@@ -1445,16 +1445,16 @@
       <c r="A26" s="24">
         <v>18</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="34">
+      <c r="B26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="30">
         <v>300</v>
       </c>
     </row>
@@ -1463,13 +1463,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="27"/>
     </row>
@@ -1478,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>43</v>
@@ -1495,25 +1495,25 @@
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="28">
+        <v>22</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="32">
-        <v>22</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>43</v>
@@ -1568,62 +1568,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
